--- a/src/test/resources/food-outlets.xlsx
+++ b/src/test/resources/food-outlets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repo\interview\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73771679-A642-447D-B2FE-F944FBBC9436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A1CA0C-1DA3-44A7-9299-03E0B0D308AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="48" windowWidth="10704" windowHeight="6504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B28" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10085,8 +10085,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10096,7 +10097,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
